--- a/main/ig/StructureDefinition-fr-ligne-prescription.xlsx
+++ b/main/ig/StructureDefinition-fr-ligne-prescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="103">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T09:49:33+00:00</t>
+    <t>2025-07-22T19:10:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,163 +75,166 @@
     <t>Jurisdiction</t>
   </si>
   <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Structuration d'une ligne de prescription [à compléter].</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>FHIR Version</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>logical</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Base Definition</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/Base</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Derivation</t>
+  </si>
+  <si>
+    <t>specialization</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>fr-ligne-prescription</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Structuration d'une ligne de prescription [à compléter].</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>FHIR Version</t>
-  </si>
-  <si>
-    <t>4.0.1</t>
-  </si>
-  <si>
-    <t>Kind</t>
-  </si>
-  <si>
-    <t>logical</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Base Definition</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Base</t>
-  </si>
-  <si>
-    <t>Abstract</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>Derivation</t>
-  </si>
-  <si>
-    <t>specialization</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>fr-ligne-prescription</t>
   </si>
   <si>
     <t>0</t>
@@ -795,26 +798,26 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>9</v>
@@ -825,965 +828,965 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/main/ig/StructureDefinition-fr-ligne-prescription.xlsx
+++ b/main/ig/StructureDefinition-fr-ligne-prescription.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Ligne de precription</t>
+    <t>Ligne de prescription</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T19:10:19+00:00</t>
+    <t>2025-07-31T09:35:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Structuration d'une ligne de prescription [à compléter].</t>
+    <t>Structuration d'une ligne de prescription [WIP - à compléter].</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/main/ig/StructureDefinition-fr-ligne-prescription.xlsx
+++ b/main/ig/StructureDefinition-fr-ligne-prescription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T09:35:58+00:00</t>
+    <t>2025-08-08T09:43:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-ligne-prescription.xlsx
+++ b/main/ig/StructureDefinition-fr-ligne-prescription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-08T09:43:11+00:00</t>
+    <t>2025-08-21T08:04:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-ligne-prescription.xlsx
+++ b/main/ig/StructureDefinition-fr-ligne-prescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="106">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T08:04:49+00:00</t>
+    <t>2025-09-23T14:10:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -329,6 +329,16 @@
   </si>
   <si>
     <t>Structure de la posologie par séquences de prise.</t>
+  </si>
+  <si>
+    <t>fr-ligne-prescription.quantitePrescrite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
+</t>
+  </si>
+  <si>
+    <t>Quantité totale de traitement prescrite, indépendamment des séquences. Cela permet d'aider la dispensation dans le cas d'une unité non convertible (exemple : crème avec une posologie en "application")</t>
   </si>
 </sst>
 </file>
@@ -633,7 +643,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:AJ12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1789,6 +1799,106 @@
         <v>73</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/main/ig/StructureDefinition-fr-ligne-prescription.xlsx
+++ b/main/ig/StructureDefinition-fr-ligne-prescription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:10:57+00:00</t>
+    <t>2025-10-24T13:47:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-ligne-prescription.xlsx
+++ b/main/ig/StructureDefinition-fr-ligne-prescription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T13:47:42+00:00</t>
+    <t>2026-01-20T09:44:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-ligne-prescription.xlsx
+++ b/main/ig/StructureDefinition-fr-ligne-prescription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-20T09:44:19+00:00</t>
+    <t>2026-01-20T11:00:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
